--- a/laliga/realmadrid/realmadrid.xlsx
+++ b/laliga/realmadrid/realmadrid.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomip\OneDrive\Documentos\pucelale\pucelale.local\laliga\realmadrid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAEF9E8-192F-4E0E-92DE-83C07E9B9BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6E7A78-9329-4570-8A55-C37CF3A0977E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{71052352-51EA-43E8-AFE1-BD72E05A4F60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71052352-51EA-43E8-AFE1-BD72E05A4F60}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -500,10 +500,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,11 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D86A48B-8925-49D5-A679-578BAA46DFEC}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,7 +870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -892,7 +890,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -912,7 +910,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -932,7 +930,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -952,7 +950,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -992,7 +990,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1012,7 +1010,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1032,7 +1030,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1112,7 +1110,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1132,7 +1130,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1172,7 +1170,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1212,7 +1210,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1252,7 +1250,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1272,7 +1270,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1292,7 +1290,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1312,7 +1310,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1332,7 +1330,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1350,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1372,7 +1370,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1412,7 +1410,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1432,7 +1430,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -1452,7 +1450,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1472,7 +1470,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1492,7 +1490,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1512,7 +1510,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -1532,7 +1530,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1552,7 +1550,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>25</v>
       </c>
@@ -1572,7 +1570,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1592,7 +1590,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1612,7 +1610,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -1632,7 +1630,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -1672,7 +1670,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -1712,7 +1710,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -1732,7 +1730,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -1752,7 +1750,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -1772,7 +1770,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -1792,7 +1790,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -1812,7 +1810,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>65</v>
       </c>
@@ -1832,7 +1830,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -1852,7 +1850,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -1872,7 +1870,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -1912,7 +1910,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -1932,7 +1930,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -1952,7 +1950,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>86</v>
       </c>
@@ -1972,7 +1970,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1992,7 +1990,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -2012,7 +2010,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -2052,7 +2050,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -2072,7 +2070,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -2092,7 +2090,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -2112,7 +2110,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>93</v>
       </c>
@@ -2132,7 +2130,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -2152,7 +2150,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -2192,7 +2190,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -2212,7 +2210,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -2232,7 +2230,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -2252,7 +2250,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -2292,7 +2290,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -2332,7 +2330,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -2352,7 +2350,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -2372,7 +2370,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>57</v>
       </c>
@@ -2392,7 +2390,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>110</v>
       </c>
@@ -2412,7 +2410,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -2432,7 +2430,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -2452,7 +2450,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>117</v>
       </c>
@@ -2492,7 +2490,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -2552,7 +2550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>124</v>
       </c>
@@ -2572,7 +2570,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -2592,7 +2590,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>125</v>
       </c>
@@ -2672,7 +2670,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -2685,7 +2683,7 @@
       <c r="D92">
         <v>29</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92">
         <v>2023</v>
       </c>
       <c r="F92">
@@ -2712,7 +2710,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>134</v>
       </c>
@@ -2873,12 +2871,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F96" xr:uid="{2D86A48B-8925-49D5-A679-578BAA46DFEC}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="2025"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:F101" xr:uid="{2D86A48B-8925-49D5-A679-578BAA46DFEC}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:F100">
       <sortCondition ref="D1:D96"/>
     </sortState>

--- a/laliga/realmadrid/realmadrid.xlsx
+++ b/laliga/realmadrid/realmadrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomip\OneDrive\Documentos\pucelale\pucelale.local\laliga\realmadrid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6E7A78-9329-4570-8A55-C37CF3A0977E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD93628-A052-48F8-89C4-FB28CC5477F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71052352-51EA-43E8-AFE1-BD72E05A4F60}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="137">
   <si>
     <t>Jugador</t>
   </si>
@@ -65,18 +65,9 @@
     <t>España</t>
   </si>
   <si>
-    <t>PT</t>
-  </si>
-  <si>
     <t>Sergio Ramos</t>
   </si>
   <si>
-    <t>DFC</t>
-  </si>
-  <si>
-    <t>LD</t>
-  </si>
-  <si>
     <t>Raul Albiol</t>
   </si>
   <si>
@@ -95,27 +86,15 @@
     <t>Brasil</t>
   </si>
   <si>
-    <t>LI</t>
-  </si>
-  <si>
     <t>Xabi Alonso</t>
   </si>
   <si>
-    <t>MCD</t>
-  </si>
-  <si>
     <t>Esteban Granero</t>
   </si>
   <si>
     <t>Kaka</t>
   </si>
   <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>DC</t>
-  </si>
-  <si>
     <t>Cristiano Ronaldo</t>
   </si>
   <si>
@@ -188,9 +167,6 @@
     <t>Angel Di Maria</t>
   </si>
   <si>
-    <t>ED</t>
-  </si>
-  <si>
     <t>Antonio Adan</t>
   </si>
   <si>
@@ -221,9 +197,6 @@
     <t>Jose Callejon</t>
   </si>
   <si>
-    <t>EI</t>
-  </si>
-  <si>
     <t>Raphael Varane</t>
   </si>
   <si>
@@ -465,6 +438,18 @@
   </si>
   <si>
     <t>Gonzalo Garcia</t>
+  </si>
+  <si>
+    <t>Atacante</t>
+  </si>
+  <si>
+    <t>Centrocampista</t>
+  </si>
+  <si>
+    <t>Defensa</t>
+  </si>
+  <si>
+    <t>Portero</t>
   </si>
 </sst>
 </file>
@@ -840,13 +825,14 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -878,7 +864,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -892,13 +878,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -912,13 +898,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -932,13 +918,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -952,13 +938,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -972,13 +958,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -992,13 +978,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1012,13 +998,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>15</v>
@@ -1032,13 +1018,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -1052,13 +1038,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1072,13 +1058,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D12">
         <v>25</v>
@@ -1092,13 +1078,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1112,13 +1098,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -1132,13 +1118,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D15">
         <v>23</v>
@@ -1152,13 +1138,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D16">
         <v>11</v>
@@ -1172,13 +1158,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1192,13 +1178,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D18">
         <v>14</v>
@@ -1212,13 +1198,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D19">
         <v>19</v>
@@ -1232,13 +1218,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1252,13 +1238,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -1272,13 +1258,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="D22">
         <v>15</v>
@@ -1292,13 +1278,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D23">
         <v>21</v>
@@ -1312,13 +1298,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D24">
         <v>17</v>
@@ -1332,13 +1318,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -1352,13 +1338,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D26">
         <v>13</v>
@@ -1372,13 +1358,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1392,13 +1378,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -1412,13 +1398,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D29">
         <v>18</v>
@@ -1432,13 +1418,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -1452,13 +1438,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D31">
         <v>16</v>
@@ -1472,13 +1458,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D32">
         <v>21</v>
@@ -1492,13 +1478,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D33">
         <v>20</v>
@@ -1512,13 +1498,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D34">
         <v>14</v>
@@ -1532,13 +1518,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D35">
         <v>21</v>
@@ -1552,13 +1538,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -1572,13 +1558,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D37">
         <v>24</v>
@@ -1592,13 +1578,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -1612,13 +1598,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -1632,13 +1618,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D40">
         <v>16</v>
@@ -1652,13 +1638,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -1672,13 +1658,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D42">
         <v>25</v>
@@ -1692,13 +1678,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D43">
         <v>7</v>
@@ -1712,13 +1698,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D44">
         <v>15</v>
@@ -1732,13 +1718,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D45">
         <v>7</v>
@@ -1752,13 +1738,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D46">
         <v>22</v>
@@ -1772,13 +1758,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="D47">
         <v>17</v>
@@ -1792,13 +1778,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D48">
         <v>24</v>
@@ -1812,13 +1798,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D49">
         <v>20</v>
@@ -1832,13 +1818,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D50">
         <v>13</v>
@@ -1852,13 +1838,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D51">
         <v>8</v>
@@ -1872,13 +1858,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D52">
         <v>23</v>
@@ -1892,13 +1878,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D53">
         <v>8</v>
@@ -1912,13 +1898,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D54">
         <v>14</v>
@@ -1932,13 +1918,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D55">
         <v>25</v>
@@ -1952,13 +1938,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D56">
         <v>16</v>
@@ -1972,13 +1958,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D57">
         <v>21</v>
@@ -1992,13 +1978,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D58">
         <v>9</v>
@@ -2012,13 +1998,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="D59">
         <v>23</v>
@@ -2032,13 +2018,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -2052,13 +2038,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="D61">
         <v>12</v>
@@ -2072,13 +2058,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D62">
         <v>16</v>
@@ -2092,13 +2078,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="D63">
         <v>21</v>
@@ -2112,13 +2098,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D64">
         <v>16</v>
@@ -2132,13 +2118,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D65">
         <v>25</v>
@@ -2152,13 +2138,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D66">
         <v>13</v>
@@ -2172,13 +2158,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D67">
         <v>10</v>
@@ -2192,13 +2178,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="D68">
         <v>15</v>
@@ -2212,13 +2198,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="D69">
         <v>19</v>
@@ -2232,13 +2218,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D70">
         <v>11</v>
@@ -2252,13 +2238,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D71">
         <v>18</v>
@@ -2272,13 +2258,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D72">
         <v>11</v>
@@ -2292,13 +2278,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D73">
         <v>18</v>
@@ -2312,13 +2298,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D74">
         <v>16</v>
@@ -2332,13 +2318,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D75">
         <v>14</v>
@@ -2352,13 +2338,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D76">
         <v>21</v>
@@ -2372,13 +2358,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D77">
         <v>14</v>
@@ -2392,13 +2378,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="D78">
         <v>23</v>
@@ -2412,13 +2398,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D79">
         <v>22</v>
@@ -2432,13 +2418,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="D80">
         <v>16</v>
@@ -2452,13 +2438,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -2472,13 +2458,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D82">
         <v>13</v>
@@ -2492,13 +2478,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D83">
         <v>30</v>
@@ -2512,13 +2498,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D84">
         <v>14</v>
@@ -2532,13 +2518,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D85">
         <v>15</v>
@@ -2552,13 +2538,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="D86">
         <v>35</v>
@@ -2572,13 +2558,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D87">
         <v>24</v>
@@ -2592,13 +2578,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="D88">
         <v>30</v>
@@ -2612,13 +2598,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D89">
         <v>16</v>
@@ -2632,13 +2618,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="D90">
         <v>17</v>
@@ -2652,13 +2638,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D91">
         <v>18</v>
@@ -2672,13 +2658,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B92" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D92">
         <v>29</v>
@@ -2692,13 +2678,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D93">
         <v>19</v>
@@ -2712,13 +2698,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
       <c r="D94">
         <v>25</v>
@@ -2732,13 +2718,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
         <v>135</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>18</v>
       </c>
       <c r="D95">
         <v>20</v>
@@ -2752,13 +2738,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="D96">
         <v>21</v>
@@ -2772,13 +2758,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D97">
         <v>22</v>
@@ -2792,13 +2778,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="D98">
         <v>23</v>
@@ -2812,13 +2798,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D99">
         <v>31</v>
@@ -2832,13 +2818,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D100">
         <v>35</v>
@@ -2852,13 +2838,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="D101">
         <v>30</v>
